--- a/dist/document/dest/2020/10/doctors/ntk.xlsx
+++ b/dist/document/dest/2020/10/doctors/ntk.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>72</v>
       </c>
-      <c r="C2" s="1">
-        <v>179280</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>44</v>
       </c>
-      <c r="C3" s="1">
-        <v>180840</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>11</v>
       </c>
-      <c r="C4" s="1">
-        <v>63250</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="1">
-        <v>23670</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>56</v>
       </c>
-      <c r="C6" s="1">
-        <v>64400</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>14</v>
       </c>
-      <c r="C7" s="1">
-        <v>53060</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>3</v>
       </c>
-      <c r="C8" s="1">
-        <v>8700</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>14</v>
       </c>
-      <c r="C9" s="1">
-        <v>107800</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>14</v>
       </c>
-      <c r="C10" s="1">
-        <v>31080</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>28</v>
       </c>
-      <c r="C11" s="1">
-        <v>403200</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -515,7 +485,7 @@
         <v>259</v>
       </c>
       <c r="C12" s="1">
-        <v>1115280</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/ntk.xlsx
+++ b/dist/document/dest/2020/10/doctors/ntk.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,98 +399,84 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Alpha Choay (VN)</v>
+        <v>Actapulgite (Attapulgite 3g)</v>
       </c>
       <c r="B2" s="1">
-        <v>72</v>
+        <v>14</v>
+      </c>
+      <c r="C2" s="1">
+        <v>50820</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Daflon (Diosmin, hesperidin)</v>
+        <v>Enterogermina 5ml</v>
       </c>
       <c r="B3" s="1">
-        <v>44</v>
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>55230</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Duphalac (Iactulose)</v>
+        <v xml:space="preserve">Fleet Enema 133ml (bơm) </v>
       </c>
       <c r="B4" s="1">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>64900</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Enterogermina 5ml</v>
+        <v>Imodium (Loperamide 2mg)</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
+      <c r="C5" s="1">
+        <v>8700</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Flagyl (Metronidazole) 250mg</v>
+        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
       </c>
       <c r="B6" s="1">
-        <v>56</v>
+        <v>60</v>
+      </c>
+      <c r="C6" s="1">
+        <v>213900</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Gastropulgite (Attapulgite, hydroxide aluminium-carbonate magnesium)</v>
+        <v>Tyrozet (Metformin 850mg)</v>
       </c>
       <c r="B7" s="1">
-        <v>14</v>
+        <v>60</v>
+      </c>
+      <c r="C7" s="1">
+        <v>144900</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Imodium (Loperamide 2mg)</v>
+        <v>Tổng cộng</v>
       </c>
       <c r="B8" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>Legalon (Silymarin 140mg)</v>
-      </c>
-      <c r="B9" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v xml:space="preserve">Sorbitol </v>
-      </c>
-      <c r="B10" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>Zinnat 250 (Cefuroxime)</v>
-      </c>
-      <c r="B11" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>Tổng cộng</v>
-      </c>
-      <c r="B12" s="1">
-        <v>259</v>
-      </c>
-      <c r="C12" s="1">
-        <v>NaN</v>
+        <v>145</v>
+      </c>
+      <c r="C8" s="1">
+        <v>538450</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C8"/>
   </ignoredErrors>
 </worksheet>
 </file>